--- a/需求分析/接口文档/客户/查看其他人客户接口.xlsx
+++ b/需求分析/接口文档/客户/查看其他人客户接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="21390" windowHeight="9225"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
   <si>
     <t>获取部门列表</t>
   </si>
@@ -379,7 +379,7 @@
     <t>获取养殖信息列表</t>
   </si>
   <si>
-    <t>/s/listUserBreed.action</t>
+    <t>/s/listVisitUserBreed.action</t>
   </si>
   <si>
     <t>场地Id(农户经验Id)</t>
@@ -466,7 +466,7 @@
     <t>获取农户列表</t>
   </si>
   <si>
-    <t>/s/listFarmer.action</t>
+    <t>/s/listVisitFarmer.action</t>
   </si>
   <si>
     <t>farmerId</t>
@@ -487,7 +487,7 @@
     <t>获取经营单位列表</t>
   </si>
   <si>
-    <t>/s/listManageUnit.action</t>
+    <t>/s/listVisitManageUnit.action</t>
   </si>
   <si>
     <t>manageId</t>
@@ -518,6 +518,54 @@
   </si>
   <si>
     <t>经营面积</t>
+  </si>
+  <si>
+    <t>获取跟进列表</t>
+  </si>
+  <si>
+    <t>/s/listVisitCustomerFollow.action</t>
+  </si>
+  <si>
+    <t>followId</t>
+  </si>
+  <si>
+    <t>跟进Id</t>
+  </si>
+  <si>
+    <t>客户的Id</t>
+  </si>
+  <si>
+    <t>customerName</t>
+  </si>
+  <si>
+    <t>客户名称</t>
+  </si>
+  <si>
+    <t>followDate</t>
+  </si>
+  <si>
+    <t>跟进时间(时间戳)</t>
+  </si>
+  <si>
+    <t>followContent</t>
+  </si>
+  <si>
+    <t>跟进内容</t>
+  </si>
+  <si>
+    <t>followResult</t>
+  </si>
+  <si>
+    <t>跟进结果</t>
+  </si>
+  <si>
+    <t>获取跟进详情</t>
+  </si>
+  <si>
+    <t>/s/getVisitCustomerFollow.action</t>
+  </si>
+  <si>
+    <t>result(json对象)</t>
   </si>
 </sst>
 </file>
@@ -525,8 +573,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -575,8 +623,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,15 +639,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,9 +660,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,45 +669,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -674,8 +691,47 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -689,21 +745,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -754,7 +802,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,43 +886,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,7 +922,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,91 +958,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,6 +981,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -941,24 +1031,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -981,21 +1067,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1010,17 +1081,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1029,10 +1089,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1044,134 +1104,134 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1193,9 +1253,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="35" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="35" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="35">
       <alignment vertical="center"/>
     </xf>
@@ -1214,7 +1271,31 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="46" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="39" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="35" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1565,10 +1646,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O298"/>
+  <dimension ref="A1:O350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="G243" sqref="G243"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="I335" sqref="I335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2089,15 +2170,15 @@
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7" t="s">
+      <c r="G50" s="6"/>
+      <c r="H50" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
       <c r="K50" s="3" t="s">
         <v>17</v>
       </c>
@@ -2107,11 +2188,11 @@
       <c r="O50" s="3"/>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
       <c r="F51" s="6" t="s">
         <v>35</v>
       </c>
@@ -2132,11 +2213,11 @@
       <c r="O51" s="3"/>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
       <c r="F52" s="6" t="s">
         <v>39</v>
       </c>
@@ -2157,11 +2238,11 @@
       <c r="O52" s="3"/>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
       <c r="F53" s="6" t="s">
         <v>41</v>
       </c>
@@ -2182,16 +2263,16 @@
       <c r="O53" s="3"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
       <c r="K54" s="3" t="s">
         <v>26</v>
       </c>
@@ -2203,16 +2284,16 @@
       <c r="O54" s="3"/>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
       <c r="K55" s="3" t="s">
         <v>47</v>
       </c>
@@ -2224,16 +2305,16 @@
       <c r="O55" s="3"/>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
       <c r="K56" s="3" t="s">
         <v>49</v>
       </c>
@@ -2245,16 +2326,16 @@
       <c r="O56" s="3"/>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
       <c r="K57" s="3" t="s">
         <v>51</v>
       </c>
@@ -2266,16 +2347,16 @@
       <c r="O57" s="3"/>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
       <c r="K58" s="3" t="s">
         <v>53</v>
       </c>
@@ -2287,16 +2368,16 @@
       <c r="O58" s="3"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
       <c r="K59" s="3" t="s">
         <v>55</v>
       </c>
@@ -2308,16 +2389,16 @@
       <c r="O59" s="3"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
       <c r="K60" s="3" t="s">
         <v>57</v>
       </c>
@@ -2329,16 +2410,16 @@
       <c r="O60" s="3"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
       <c r="K61" s="3" t="s">
         <v>59</v>
       </c>
@@ -3114,15 +3195,15 @@
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
-      <c r="K150" s="9" t="s">
+      <c r="K150" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L150" s="9"/>
-      <c r="M150" s="9" t="s">
+      <c r="L150" s="8"/>
+      <c r="M150" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N150" s="9"/>
-      <c r="O150" s="9"/>
+      <c r="N150" s="8"/>
+      <c r="O150" s="8"/>
     </row>
     <row r="151" spans="1:15">
       <c r="A151" s="3"/>
@@ -3313,15 +3394,15 @@
       <c r="H159" s="4"/>
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
-      <c r="K159" s="10" t="s">
+      <c r="K159" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="L159" s="10"/>
-      <c r="M159" s="10" t="s">
+      <c r="L159" s="9"/>
+      <c r="M159" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="N159" s="10"/>
-      <c r="O159" s="10"/>
+      <c r="N159" s="9"/>
+      <c r="O159" s="9"/>
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="4"/>
@@ -3334,15 +3415,15 @@
       <c r="H160" s="4"/>
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
-      <c r="K160" s="11" t="s">
+      <c r="K160" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="L160" s="11"/>
-      <c r="M160" s="11" t="s">
+      <c r="L160" s="10"/>
+      <c r="M160" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="N160" s="11"/>
-      <c r="O160" s="11"/>
+      <c r="N160" s="10"/>
+      <c r="O160" s="10"/>
     </row>
     <row r="161" spans="1:15">
       <c r="A161" s="4"/>
@@ -3355,15 +3436,15 @@
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
-      <c r="K161" s="11" t="s">
+      <c r="K161" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="L161" s="11"/>
-      <c r="M161" s="11" t="s">
+      <c r="L161" s="10"/>
+      <c r="M161" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="N161" s="11"/>
-      <c r="O161" s="11"/>
+      <c r="N161" s="10"/>
+      <c r="O161" s="10"/>
     </row>
     <row r="162" spans="1:15">
       <c r="A162" s="4"/>
@@ -3376,15 +3457,15 @@
       <c r="H162" s="4"/>
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
-      <c r="K162" s="12" t="s">
+      <c r="K162" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="L162" s="12"/>
-      <c r="M162" s="12" t="s">
+      <c r="L162" s="11"/>
+      <c r="M162" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="N162" s="12"/>
-      <c r="O162" s="12"/>
+      <c r="N162" s="11"/>
+      <c r="O162" s="11"/>
     </row>
     <row r="163" spans="1:15">
       <c r="A163" s="4"/>
@@ -3397,15 +3478,15 @@
       <c r="H163" s="4"/>
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
-      <c r="K163" s="13" t="s">
+      <c r="K163" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="L163" s="13"/>
-      <c r="M163" s="13" t="s">
+      <c r="L163" s="12"/>
+      <c r="M163" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="N163" s="13"/>
-      <c r="O163" s="13"/>
+      <c r="N163" s="12"/>
+      <c r="O163" s="12"/>
     </row>
     <row r="164" spans="1:15">
       <c r="A164" s="4"/>
@@ -3418,15 +3499,15 @@
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
-      <c r="K164" s="13" t="s">
+      <c r="K164" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="L164" s="13"/>
-      <c r="M164" s="13" t="s">
+      <c r="L164" s="12"/>
+      <c r="M164" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="N164" s="13"/>
-      <c r="O164" s="13"/>
+      <c r="N164" s="12"/>
+      <c r="O164" s="12"/>
     </row>
     <row r="184" spans="1:15">
       <c r="A184" s="1" t="s">
@@ -3560,15 +3641,15 @@
       </c>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
-      <c r="K189" s="9" t="s">
+      <c r="K189" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L189" s="9"/>
-      <c r="M189" s="9" t="s">
+      <c r="L189" s="8"/>
+      <c r="M189" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N189" s="9"/>
-      <c r="O189" s="9"/>
+      <c r="N189" s="8"/>
+      <c r="O189" s="8"/>
     </row>
     <row r="190" spans="1:15">
       <c r="A190" s="3"/>
@@ -3751,15 +3832,15 @@
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
       <c r="J198" s="4"/>
-      <c r="K198" s="10" t="s">
+      <c r="K198" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="L198" s="10"/>
-      <c r="M198" s="10" t="s">
+      <c r="L198" s="9"/>
+      <c r="M198" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="N198" s="10"/>
-      <c r="O198" s="10"/>
+      <c r="N198" s="9"/>
+      <c r="O198" s="9"/>
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="4"/>
@@ -3772,15 +3853,15 @@
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
       <c r="J199" s="4"/>
-      <c r="K199" s="11" t="s">
+      <c r="K199" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="L199" s="11"/>
-      <c r="M199" s="11" t="s">
+      <c r="L199" s="10"/>
+      <c r="M199" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="N199" s="11"/>
-      <c r="O199" s="11"/>
+      <c r="N199" s="10"/>
+      <c r="O199" s="10"/>
     </row>
     <row r="200" spans="1:15">
       <c r="A200" s="4"/>
@@ -3793,15 +3874,15 @@
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
       <c r="J200" s="4"/>
-      <c r="K200" s="11" t="s">
+      <c r="K200" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="L200" s="11"/>
-      <c r="M200" s="11" t="s">
+      <c r="L200" s="10"/>
+      <c r="M200" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="N200" s="11"/>
-      <c r="O200" s="11"/>
+      <c r="N200" s="10"/>
+      <c r="O200" s="10"/>
     </row>
     <row r="201" spans="1:15">
       <c r="A201" s="4"/>
@@ -3814,15 +3895,15 @@
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
       <c r="J201" s="4"/>
-      <c r="K201" s="12" t="s">
+      <c r="K201" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="L201" s="12"/>
-      <c r="M201" s="12" t="s">
+      <c r="L201" s="11"/>
+      <c r="M201" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="N201" s="12"/>
-      <c r="O201" s="12"/>
+      <c r="N201" s="11"/>
+      <c r="O201" s="11"/>
     </row>
     <row r="202" spans="1:15">
       <c r="A202" s="4"/>
@@ -3835,15 +3916,15 @@
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
       <c r="J202" s="4"/>
-      <c r="K202" s="13" t="s">
+      <c r="K202" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="L202" s="13"/>
-      <c r="M202" s="13" t="s">
+      <c r="L202" s="12"/>
+      <c r="M202" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="N202" s="13"/>
-      <c r="O202" s="13"/>
+      <c r="N202" s="12"/>
+      <c r="O202" s="12"/>
     </row>
     <row r="203" spans="1:15">
       <c r="A203" s="4"/>
@@ -3856,51 +3937,51 @@
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
-      <c r="K203" s="13" t="s">
+      <c r="K203" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="L203" s="13"/>
-      <c r="M203" s="13" t="s">
+      <c r="L203" s="12"/>
+      <c r="M203" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="N203" s="13"/>
-      <c r="O203" s="13"/>
+      <c r="N203" s="12"/>
+      <c r="O203" s="12"/>
     </row>
     <row r="222" spans="1:15">
-      <c r="A222" s="14" t="s">
+      <c r="A222" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B222" s="14"/>
-      <c r="C222" s="14"/>
-      <c r="D222" s="14"/>
-      <c r="E222" s="14"/>
-      <c r="F222" s="14"/>
-      <c r="G222" s="14"/>
-      <c r="H222" s="14"/>
-      <c r="I222" s="14"/>
-      <c r="J222" s="14"/>
-      <c r="K222" s="14"/>
-      <c r="L222" s="14"/>
-      <c r="M222" s="14"/>
-      <c r="N222" s="14"/>
-      <c r="O222" s="14"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1"/>
+      <c r="H222" s="1"/>
+      <c r="I222" s="1"/>
+      <c r="J222" s="1"/>
+      <c r="K222" s="1"/>
+      <c r="L222" s="1"/>
+      <c r="M222" s="1"/>
+      <c r="N222" s="1"/>
+      <c r="O222" s="1"/>
     </row>
     <row r="223" spans="1:15">
-      <c r="A223" s="14"/>
-      <c r="B223" s="14"/>
-      <c r="C223" s="14"/>
-      <c r="D223" s="14"/>
-      <c r="E223" s="14"/>
-      <c r="F223" s="14"/>
-      <c r="G223" s="14"/>
-      <c r="H223" s="14"/>
-      <c r="I223" s="14"/>
-      <c r="J223" s="14"/>
-      <c r="K223" s="14"/>
-      <c r="L223" s="14"/>
-      <c r="M223" s="14"/>
-      <c r="N223" s="14"/>
-      <c r="O223" s="14"/>
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="I223" s="1"/>
+      <c r="J223" s="1"/>
+      <c r="K223" s="1"/>
+      <c r="L223" s="1"/>
+      <c r="M223" s="1"/>
+      <c r="N223" s="1"/>
+      <c r="O223" s="1"/>
     </row>
     <row r="224" spans="1:15">
       <c r="A224" s="2" t="s">
@@ -3998,15 +4079,15 @@
       </c>
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
-      <c r="K227" s="9" t="s">
+      <c r="K227" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L227" s="9"/>
-      <c r="M227" s="9" t="s">
+      <c r="L227" s="8"/>
+      <c r="M227" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N227" s="9"/>
-      <c r="O227" s="9"/>
+      <c r="N227" s="8"/>
+      <c r="O227" s="8"/>
     </row>
     <row r="228" spans="1:15">
       <c r="A228" s="3"/>
@@ -4313,40 +4394,40 @@
       <c r="O241" s="3"/>
     </row>
     <row r="260" spans="1:15">
-      <c r="A260" s="14" t="s">
+      <c r="A260" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B260" s="14"/>
-      <c r="C260" s="14"/>
-      <c r="D260" s="14"/>
-      <c r="E260" s="14"/>
-      <c r="F260" s="14"/>
-      <c r="G260" s="14"/>
-      <c r="H260" s="14"/>
-      <c r="I260" s="14"/>
-      <c r="J260" s="14"/>
-      <c r="K260" s="14"/>
-      <c r="L260" s="14"/>
-      <c r="M260" s="14"/>
-      <c r="N260" s="14"/>
-      <c r="O260" s="14"/>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="1"/>
+      <c r="F260" s="1"/>
+      <c r="G260" s="1"/>
+      <c r="H260" s="1"/>
+      <c r="I260" s="1"/>
+      <c r="J260" s="1"/>
+      <c r="K260" s="1"/>
+      <c r="L260" s="1"/>
+      <c r="M260" s="1"/>
+      <c r="N260" s="1"/>
+      <c r="O260" s="1"/>
     </row>
     <row r="261" spans="1:15">
-      <c r="A261" s="14"/>
-      <c r="B261" s="14"/>
-      <c r="C261" s="14"/>
-      <c r="D261" s="14"/>
-      <c r="E261" s="14"/>
-      <c r="F261" s="14"/>
-      <c r="G261" s="14"/>
-      <c r="H261" s="14"/>
-      <c r="I261" s="14"/>
-      <c r="J261" s="14"/>
-      <c r="K261" s="14"/>
-      <c r="L261" s="14"/>
-      <c r="M261" s="14"/>
-      <c r="N261" s="14"/>
-      <c r="O261" s="14"/>
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+      <c r="E261" s="1"/>
+      <c r="F261" s="1"/>
+      <c r="G261" s="1"/>
+      <c r="H261" s="1"/>
+      <c r="I261" s="1"/>
+      <c r="J261" s="1"/>
+      <c r="K261" s="1"/>
+      <c r="L261" s="1"/>
+      <c r="M261" s="1"/>
+      <c r="N261" s="1"/>
+      <c r="O261" s="1"/>
     </row>
     <row r="262" spans="1:15">
       <c r="A262" s="2" t="s">
@@ -4444,15 +4525,15 @@
       </c>
       <c r="I265" s="3"/>
       <c r="J265" s="3"/>
-      <c r="K265" s="9" t="s">
+      <c r="K265" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L265" s="9"/>
-      <c r="M265" s="9" t="s">
+      <c r="L265" s="8"/>
+      <c r="M265" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N265" s="9"/>
-      <c r="O265" s="9"/>
+      <c r="N265" s="8"/>
+      <c r="O265" s="8"/>
     </row>
     <row r="266" spans="1:15">
       <c r="A266" s="3"/>
@@ -4549,40 +4630,40 @@
       <c r="O269" s="3"/>
     </row>
     <row r="287" spans="1:15">
-      <c r="A287" s="14" t="s">
+      <c r="A287" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B287" s="14"/>
-      <c r="C287" s="14"/>
-      <c r="D287" s="14"/>
-      <c r="E287" s="14"/>
-      <c r="F287" s="14"/>
-      <c r="G287" s="14"/>
-      <c r="H287" s="14"/>
-      <c r="I287" s="14"/>
-      <c r="J287" s="14"/>
-      <c r="K287" s="14"/>
-      <c r="L287" s="14"/>
-      <c r="M287" s="14"/>
-      <c r="N287" s="14"/>
-      <c r="O287" s="14"/>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+      <c r="D287" s="1"/>
+      <c r="E287" s="1"/>
+      <c r="F287" s="1"/>
+      <c r="G287" s="1"/>
+      <c r="H287" s="1"/>
+      <c r="I287" s="1"/>
+      <c r="J287" s="1"/>
+      <c r="K287" s="1"/>
+      <c r="L287" s="1"/>
+      <c r="M287" s="1"/>
+      <c r="N287" s="1"/>
+      <c r="O287" s="1"/>
     </row>
     <row r="288" spans="1:15">
-      <c r="A288" s="14"/>
-      <c r="B288" s="14"/>
-      <c r="C288" s="14"/>
-      <c r="D288" s="14"/>
-      <c r="E288" s="14"/>
-      <c r="F288" s="14"/>
-      <c r="G288" s="14"/>
-      <c r="H288" s="14"/>
-      <c r="I288" s="14"/>
-      <c r="J288" s="14"/>
-      <c r="K288" s="14"/>
-      <c r="L288" s="14"/>
-      <c r="M288" s="14"/>
-      <c r="N288" s="14"/>
-      <c r="O288" s="14"/>
+      <c r="A288" s="1"/>
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="1"/>
+      <c r="E288" s="1"/>
+      <c r="F288" s="1"/>
+      <c r="G288" s="1"/>
+      <c r="H288" s="1"/>
+      <c r="I288" s="1"/>
+      <c r="J288" s="1"/>
+      <c r="K288" s="1"/>
+      <c r="L288" s="1"/>
+      <c r="M288" s="1"/>
+      <c r="N288" s="1"/>
+      <c r="O288" s="1"/>
     </row>
     <row r="289" spans="1:15">
       <c r="A289" s="2" t="s">
@@ -4680,15 +4761,15 @@
       </c>
       <c r="I292" s="3"/>
       <c r="J292" s="3"/>
-      <c r="K292" s="9" t="s">
+      <c r="K292" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L292" s="9"/>
-      <c r="M292" s="9" t="s">
+      <c r="L292" s="8"/>
+      <c r="M292" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N292" s="9"/>
-      <c r="O292" s="9"/>
+      <c r="N292" s="8"/>
+      <c r="O292" s="8"/>
     </row>
     <row r="293" spans="1:15">
       <c r="A293" s="3"/>
@@ -4826,8 +4907,781 @@
       <c r="N298" s="3"/>
       <c r="O298" s="3"/>
     </row>
+    <row r="314" spans="1:15">
+      <c r="A314" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B314" s="13"/>
+      <c r="C314" s="13"/>
+      <c r="D314" s="13"/>
+      <c r="E314" s="13"/>
+      <c r="F314" s="13"/>
+      <c r="G314" s="13"/>
+      <c r="H314" s="13"/>
+      <c r="I314" s="13"/>
+      <c r="J314" s="13"/>
+      <c r="K314" s="13"/>
+      <c r="L314" s="13"/>
+      <c r="M314" s="13"/>
+      <c r="N314" s="13"/>
+      <c r="O314" s="13"/>
+    </row>
+    <row r="315" spans="1:15">
+      <c r="A315" s="13"/>
+      <c r="B315" s="13"/>
+      <c r="C315" s="13"/>
+      <c r="D315" s="13"/>
+      <c r="E315" s="13"/>
+      <c r="F315" s="13"/>
+      <c r="G315" s="13"/>
+      <c r="H315" s="13"/>
+      <c r="I315" s="13"/>
+      <c r="J315" s="13"/>
+      <c r="K315" s="13"/>
+      <c r="L315" s="13"/>
+      <c r="M315" s="13"/>
+      <c r="N315" s="13"/>
+      <c r="O315" s="13"/>
+    </row>
+    <row r="316" spans="1:15">
+      <c r="A316" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B316" s="14"/>
+      <c r="C316" s="14"/>
+      <c r="D316" s="14"/>
+      <c r="E316" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F316" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G316" s="14"/>
+      <c r="H316" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I316" s="14"/>
+      <c r="J316" s="14"/>
+      <c r="K316" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L316" s="14"/>
+      <c r="M316" s="14"/>
+      <c r="N316" s="14"/>
+      <c r="O316" s="14"/>
+    </row>
+    <row r="317" spans="1:15">
+      <c r="A317" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B317" s="17"/>
+      <c r="C317" s="17"/>
+      <c r="D317" s="17"/>
+      <c r="E317" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F317" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G317" s="17"/>
+      <c r="H317" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I317" s="17"/>
+      <c r="J317" s="17"/>
+      <c r="K317" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L317" s="17"/>
+      <c r="M317" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="N317" s="17"/>
+      <c r="O317" s="17"/>
+    </row>
+    <row r="318" spans="1:15">
+      <c r="A318" s="16"/>
+      <c r="B318" s="16"/>
+      <c r="C318" s="16"/>
+      <c r="D318" s="16"/>
+      <c r="E318" s="16"/>
+      <c r="F318" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G318" s="17"/>
+      <c r="H318" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I318" s="17"/>
+      <c r="J318" s="17"/>
+      <c r="K318" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L318" s="17"/>
+      <c r="M318" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N318" s="17"/>
+      <c r="O318" s="17"/>
+    </row>
+    <row r="319" spans="1:15">
+      <c r="A319" s="16"/>
+      <c r="B319" s="16"/>
+      <c r="C319" s="16"/>
+      <c r="D319" s="16"/>
+      <c r="E319" s="16"/>
+      <c r="F319" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G319" s="17"/>
+      <c r="H319" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I319" s="17"/>
+      <c r="J319" s="17"/>
+      <c r="K319" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L319" s="18"/>
+      <c r="M319" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="N319" s="18"/>
+      <c r="O319" s="18"/>
+    </row>
+    <row r="320" spans="1:15">
+      <c r="A320" s="16"/>
+      <c r="B320" s="16"/>
+      <c r="C320" s="16"/>
+      <c r="D320" s="16"/>
+      <c r="E320" s="16"/>
+      <c r="F320" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G320" s="3"/>
+      <c r="H320" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I320" s="3"/>
+      <c r="J320" s="3"/>
+      <c r="K320" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L320" s="16"/>
+      <c r="M320" s="16"/>
+      <c r="N320" s="16"/>
+      <c r="O320" s="16"/>
+    </row>
+    <row r="321" spans="1:15">
+      <c r="A321" s="16"/>
+      <c r="B321" s="16"/>
+      <c r="C321" s="16"/>
+      <c r="D321" s="16"/>
+      <c r="E321" s="16"/>
+      <c r="F321" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G321" s="17"/>
+      <c r="H321" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I321" s="17"/>
+      <c r="J321" s="17"/>
+      <c r="K321" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="L321" s="16"/>
+      <c r="M321" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="N321" s="17"/>
+      <c r="O321" s="17"/>
+    </row>
+    <row r="322" spans="1:15">
+      <c r="A322" s="16"/>
+      <c r="B322" s="16"/>
+      <c r="C322" s="16"/>
+      <c r="D322" s="16"/>
+      <c r="E322" s="16"/>
+      <c r="F322" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G322" s="17"/>
+      <c r="H322" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I322" s="17"/>
+      <c r="J322" s="17"/>
+      <c r="K322" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L322" s="17"/>
+      <c r="M322" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="N322" s="17"/>
+      <c r="O322" s="17"/>
+    </row>
+    <row r="323" spans="1:15">
+      <c r="A323" s="19"/>
+      <c r="B323" s="19"/>
+      <c r="C323" s="19"/>
+      <c r="D323" s="19"/>
+      <c r="E323" s="19"/>
+      <c r="F323" s="17"/>
+      <c r="G323" s="17"/>
+      <c r="H323" s="17"/>
+      <c r="I323" s="17"/>
+      <c r="J323" s="17"/>
+      <c r="K323" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="L323" s="17"/>
+      <c r="M323" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="N323" s="17"/>
+      <c r="O323" s="17"/>
+    </row>
+    <row r="324" spans="1:15">
+      <c r="A324" s="19"/>
+      <c r="B324" s="19"/>
+      <c r="C324" s="19"/>
+      <c r="D324" s="19"/>
+      <c r="E324" s="19"/>
+      <c r="F324" s="17"/>
+      <c r="G324" s="17"/>
+      <c r="H324" s="17"/>
+      <c r="I324" s="17"/>
+      <c r="J324" s="17"/>
+      <c r="K324" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="L324" s="17"/>
+      <c r="M324" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="N324" s="17"/>
+      <c r="O324" s="17"/>
+    </row>
+    <row r="325" spans="1:15">
+      <c r="A325" s="19"/>
+      <c r="B325" s="19"/>
+      <c r="C325" s="19"/>
+      <c r="D325" s="19"/>
+      <c r="E325" s="19"/>
+      <c r="F325" s="19"/>
+      <c r="G325" s="19"/>
+      <c r="H325" s="19"/>
+      <c r="I325" s="19"/>
+      <c r="J325" s="19"/>
+      <c r="K325" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="L325" s="17"/>
+      <c r="M325" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="N325" s="17"/>
+      <c r="O325" s="17"/>
+    </row>
+    <row r="326" spans="1:15">
+      <c r="A326" s="19"/>
+      <c r="B326" s="19"/>
+      <c r="C326" s="19"/>
+      <c r="D326" s="19"/>
+      <c r="E326" s="19"/>
+      <c r="F326" s="19"/>
+      <c r="G326" s="19"/>
+      <c r="H326" s="19"/>
+      <c r="I326" s="19"/>
+      <c r="J326" s="19"/>
+      <c r="K326" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="L326" s="17"/>
+      <c r="M326" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="N326" s="21"/>
+      <c r="O326" s="21"/>
+    </row>
+    <row r="327" spans="1:15">
+      <c r="A327" s="20"/>
+      <c r="B327" s="20"/>
+      <c r="C327" s="20"/>
+      <c r="D327" s="20"/>
+      <c r="E327" s="20"/>
+      <c r="F327" s="20"/>
+      <c r="G327" s="20"/>
+      <c r="H327" s="20"/>
+      <c r="I327" s="20"/>
+      <c r="J327" s="20"/>
+      <c r="K327" s="20"/>
+      <c r="L327" s="20"/>
+      <c r="M327" s="20"/>
+      <c r="N327" s="20"/>
+      <c r="O327" s="20"/>
+    </row>
+    <row r="328" spans="1:15">
+      <c r="A328" s="20"/>
+      <c r="B328" s="20"/>
+      <c r="C328" s="20"/>
+      <c r="D328" s="20"/>
+      <c r="E328" s="20"/>
+      <c r="F328" s="20"/>
+      <c r="G328" s="20"/>
+      <c r="H328" s="20"/>
+      <c r="I328" s="20"/>
+      <c r="J328" s="20"/>
+      <c r="K328" s="20"/>
+      <c r="L328" s="20"/>
+      <c r="M328" s="20"/>
+      <c r="N328" s="20"/>
+      <c r="O328" s="20"/>
+    </row>
+    <row r="329" spans="1:15">
+      <c r="A329" s="20"/>
+      <c r="B329" s="20"/>
+      <c r="C329" s="20"/>
+      <c r="D329" s="20"/>
+      <c r="E329" s="20"/>
+      <c r="F329" s="20"/>
+      <c r="G329" s="20"/>
+      <c r="H329" s="20"/>
+      <c r="I329" s="20"/>
+      <c r="J329" s="20"/>
+      <c r="K329" s="20"/>
+      <c r="L329" s="20"/>
+      <c r="M329" s="20"/>
+      <c r="N329" s="20"/>
+      <c r="O329" s="20"/>
+    </row>
+    <row r="330" spans="1:15">
+      <c r="A330" s="20"/>
+      <c r="B330" s="20"/>
+      <c r="C330" s="20"/>
+      <c r="D330" s="20"/>
+      <c r="E330" s="20"/>
+      <c r="F330" s="20"/>
+      <c r="G330" s="20"/>
+      <c r="H330" s="20"/>
+      <c r="I330" s="20"/>
+      <c r="J330" s="20"/>
+      <c r="K330" s="20"/>
+      <c r="L330" s="20"/>
+      <c r="M330" s="20"/>
+      <c r="N330" s="20"/>
+      <c r="O330" s="20"/>
+    </row>
+    <row r="331" spans="1:15">
+      <c r="A331" s="20"/>
+      <c r="B331" s="20"/>
+      <c r="C331" s="20"/>
+      <c r="D331" s="20"/>
+      <c r="E331" s="20"/>
+      <c r="F331" s="20"/>
+      <c r="G331" s="20"/>
+      <c r="H331" s="20"/>
+      <c r="I331" s="20"/>
+      <c r="J331" s="20"/>
+      <c r="K331" s="20"/>
+      <c r="L331" s="20"/>
+      <c r="M331" s="20"/>
+      <c r="N331" s="20"/>
+      <c r="O331" s="20"/>
+    </row>
+    <row r="332" spans="1:15">
+      <c r="A332" s="20"/>
+      <c r="B332" s="20"/>
+      <c r="C332" s="20"/>
+      <c r="D332" s="20"/>
+      <c r="E332" s="20"/>
+      <c r="F332" s="20"/>
+      <c r="G332" s="20"/>
+      <c r="H332" s="20"/>
+      <c r="I332" s="20"/>
+      <c r="J332" s="20"/>
+      <c r="K332" s="20"/>
+      <c r="L332" s="20"/>
+      <c r="M332" s="20"/>
+      <c r="N332" s="20"/>
+      <c r="O332" s="20"/>
+    </row>
+    <row r="333" spans="1:15">
+      <c r="A333" s="20"/>
+      <c r="B333" s="20"/>
+      <c r="C333" s="20"/>
+      <c r="D333" s="20"/>
+      <c r="E333" s="20"/>
+      <c r="F333" s="20"/>
+      <c r="G333" s="20"/>
+      <c r="H333" s="20"/>
+      <c r="I333" s="20"/>
+      <c r="J333" s="20"/>
+      <c r="K333" s="20"/>
+      <c r="L333" s="20"/>
+      <c r="M333" s="20"/>
+      <c r="N333" s="20"/>
+      <c r="O333" s="20"/>
+    </row>
+    <row r="334" spans="1:15">
+      <c r="A334" s="20"/>
+      <c r="B334" s="20"/>
+      <c r="C334" s="20"/>
+      <c r="D334" s="20"/>
+      <c r="E334" s="20"/>
+      <c r="F334" s="20"/>
+      <c r="G334" s="20"/>
+      <c r="H334" s="20"/>
+      <c r="I334" s="20"/>
+      <c r="J334" s="20"/>
+      <c r="K334" s="20"/>
+      <c r="L334" s="20"/>
+      <c r="M334" s="20"/>
+      <c r="N334" s="20"/>
+      <c r="O334" s="20"/>
+    </row>
+    <row r="335" spans="1:15">
+      <c r="A335" s="20"/>
+      <c r="B335" s="20"/>
+      <c r="C335" s="20"/>
+      <c r="D335" s="20"/>
+      <c r="E335" s="20"/>
+      <c r="F335" s="20"/>
+      <c r="G335" s="20"/>
+      <c r="H335" s="20"/>
+      <c r="I335" s="20"/>
+      <c r="J335" s="20"/>
+      <c r="K335" s="20"/>
+      <c r="L335" s="20"/>
+      <c r="M335" s="20"/>
+      <c r="N335" s="20"/>
+      <c r="O335" s="20"/>
+    </row>
+    <row r="336" spans="1:15">
+      <c r="A336" s="20"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="20"/>
+      <c r="D336" s="20"/>
+      <c r="E336" s="20"/>
+      <c r="F336" s="20"/>
+      <c r="G336" s="20"/>
+      <c r="H336" s="20"/>
+      <c r="I336" s="20"/>
+      <c r="J336" s="20"/>
+      <c r="K336" s="20"/>
+      <c r="L336" s="20"/>
+      <c r="M336" s="20"/>
+      <c r="N336" s="20"/>
+      <c r="O336" s="20"/>
+    </row>
+    <row r="337" spans="1:15">
+      <c r="A337" s="20"/>
+      <c r="B337" s="20"/>
+      <c r="C337" s="20"/>
+      <c r="D337" s="20"/>
+      <c r="E337" s="20"/>
+      <c r="F337" s="20"/>
+      <c r="G337" s="20"/>
+      <c r="H337" s="20"/>
+      <c r="I337" s="20"/>
+      <c r="J337" s="20"/>
+      <c r="K337" s="20"/>
+      <c r="L337" s="20"/>
+      <c r="M337" s="20"/>
+      <c r="N337" s="20"/>
+      <c r="O337" s="20"/>
+    </row>
+    <row r="338" spans="1:15">
+      <c r="A338" s="20"/>
+      <c r="B338" s="20"/>
+      <c r="C338" s="20"/>
+      <c r="D338" s="20"/>
+      <c r="E338" s="20"/>
+      <c r="F338" s="20"/>
+      <c r="G338" s="20"/>
+      <c r="H338" s="20"/>
+      <c r="I338" s="20"/>
+      <c r="J338" s="20"/>
+      <c r="K338" s="20"/>
+      <c r="L338" s="20"/>
+      <c r="M338" s="20"/>
+      <c r="N338" s="20"/>
+      <c r="O338" s="20"/>
+    </row>
+    <row r="339" spans="1:15">
+      <c r="A339" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B339" s="13"/>
+      <c r="C339" s="13"/>
+      <c r="D339" s="13"/>
+      <c r="E339" s="13"/>
+      <c r="F339" s="13"/>
+      <c r="G339" s="13"/>
+      <c r="H339" s="13"/>
+      <c r="I339" s="13"/>
+      <c r="J339" s="13"/>
+      <c r="K339" s="13"/>
+      <c r="L339" s="13"/>
+      <c r="M339" s="13"/>
+      <c r="N339" s="13"/>
+      <c r="O339" s="13"/>
+    </row>
+    <row r="340" spans="1:15">
+      <c r="A340" s="13"/>
+      <c r="B340" s="13"/>
+      <c r="C340" s="13"/>
+      <c r="D340" s="13"/>
+      <c r="E340" s="13"/>
+      <c r="F340" s="13"/>
+      <c r="G340" s="13"/>
+      <c r="H340" s="13"/>
+      <c r="I340" s="13"/>
+      <c r="J340" s="13"/>
+      <c r="K340" s="13"/>
+      <c r="L340" s="13"/>
+      <c r="M340" s="13"/>
+      <c r="N340" s="13"/>
+      <c r="O340" s="13"/>
+    </row>
+    <row r="341" spans="1:15">
+      <c r="A341" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B341" s="14"/>
+      <c r="C341" s="14"/>
+      <c r="D341" s="14"/>
+      <c r="E341" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F341" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G341" s="14"/>
+      <c r="H341" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I341" s="14"/>
+      <c r="J341" s="14"/>
+      <c r="K341" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L341" s="14"/>
+      <c r="M341" s="14"/>
+      <c r="N341" s="14"/>
+      <c r="O341" s="14"/>
+    </row>
+    <row r="342" spans="1:15">
+      <c r="A342" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B342" s="17"/>
+      <c r="C342" s="17"/>
+      <c r="D342" s="17"/>
+      <c r="E342" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F342" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G342" s="17"/>
+      <c r="H342" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I342" s="17"/>
+      <c r="J342" s="17"/>
+      <c r="K342" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L342" s="17"/>
+      <c r="M342" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="N342" s="17"/>
+      <c r="O342" s="17"/>
+    </row>
+    <row r="343" spans="1:15">
+      <c r="A343" s="16"/>
+      <c r="B343" s="16"/>
+      <c r="C343" s="16"/>
+      <c r="D343" s="16"/>
+      <c r="E343" s="16"/>
+      <c r="F343" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G343" s="17"/>
+      <c r="H343" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I343" s="17"/>
+      <c r="J343" s="17"/>
+      <c r="K343" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L343" s="17"/>
+      <c r="M343" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N343" s="17"/>
+      <c r="O343" s="17"/>
+    </row>
+    <row r="344" spans="1:15">
+      <c r="A344" s="16"/>
+      <c r="B344" s="16"/>
+      <c r="C344" s="16"/>
+      <c r="D344" s="16"/>
+      <c r="E344" s="16"/>
+      <c r="F344" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G344" s="17"/>
+      <c r="H344" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I344" s="17"/>
+      <c r="J344" s="17"/>
+      <c r="K344" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="L344" s="16"/>
+      <c r="M344" s="16"/>
+      <c r="N344" s="16"/>
+      <c r="O344" s="16"/>
+    </row>
+    <row r="345" spans="1:15">
+      <c r="A345" s="16"/>
+      <c r="B345" s="16"/>
+      <c r="C345" s="16"/>
+      <c r="D345" s="16"/>
+      <c r="E345" s="16"/>
+      <c r="F345" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G345" s="16"/>
+      <c r="H345" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="I345" s="17"/>
+      <c r="J345" s="17"/>
+      <c r="K345" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="L345" s="16"/>
+      <c r="M345" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="N345" s="17"/>
+      <c r="O345" s="17"/>
+    </row>
+    <row r="346" spans="1:15">
+      <c r="A346" s="19"/>
+      <c r="B346" s="19"/>
+      <c r="C346" s="19"/>
+      <c r="D346" s="19"/>
+      <c r="E346" s="19"/>
+      <c r="F346" s="19"/>
+      <c r="G346" s="19"/>
+      <c r="H346" s="19"/>
+      <c r="I346" s="19"/>
+      <c r="J346" s="19"/>
+      <c r="K346" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L346" s="17"/>
+      <c r="M346" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="N346" s="17"/>
+      <c r="O346" s="17"/>
+    </row>
+    <row r="347" spans="1:15">
+      <c r="A347" s="19"/>
+      <c r="B347" s="19"/>
+      <c r="C347" s="19"/>
+      <c r="D347" s="19"/>
+      <c r="E347" s="19"/>
+      <c r="F347" s="19"/>
+      <c r="G347" s="19"/>
+      <c r="H347" s="19"/>
+      <c r="I347" s="19"/>
+      <c r="J347" s="19"/>
+      <c r="K347" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="L347" s="17"/>
+      <c r="M347" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="N347" s="17"/>
+      <c r="O347" s="17"/>
+    </row>
+    <row r="348" spans="1:15">
+      <c r="A348" s="19"/>
+      <c r="B348" s="19"/>
+      <c r="C348" s="19"/>
+      <c r="D348" s="19"/>
+      <c r="E348" s="19"/>
+      <c r="F348" s="19"/>
+      <c r="G348" s="19"/>
+      <c r="H348" s="19"/>
+      <c r="I348" s="19"/>
+      <c r="J348" s="19"/>
+      <c r="K348" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="L348" s="17"/>
+      <c r="M348" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="N348" s="17"/>
+      <c r="O348" s="17"/>
+    </row>
+    <row r="349" spans="1:15">
+      <c r="A349" s="19"/>
+      <c r="B349" s="19"/>
+      <c r="C349" s="19"/>
+      <c r="D349" s="19"/>
+      <c r="E349" s="19"/>
+      <c r="F349" s="19"/>
+      <c r="G349" s="19"/>
+      <c r="H349" s="19"/>
+      <c r="I349" s="19"/>
+      <c r="J349" s="19"/>
+      <c r="K349" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="L349" s="17"/>
+      <c r="M349" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="N349" s="17"/>
+      <c r="O349" s="17"/>
+    </row>
+    <row r="350" spans="1:15">
+      <c r="A350" s="19"/>
+      <c r="B350" s="19"/>
+      <c r="C350" s="19"/>
+      <c r="D350" s="19"/>
+      <c r="E350" s="19"/>
+      <c r="F350" s="19"/>
+      <c r="G350" s="19"/>
+      <c r="H350" s="19"/>
+      <c r="I350" s="19"/>
+      <c r="J350" s="19"/>
+      <c r="K350" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="L350" s="17"/>
+      <c r="M350" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="N350" s="21"/>
+      <c r="O350" s="21"/>
+    </row>
   </sheetData>
-  <mergeCells count="430">
+  <mergeCells count="502">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:J3"/>
@@ -5248,6 +6102,76 @@
     <mergeCell ref="H298:J298"/>
     <mergeCell ref="K298:L298"/>
     <mergeCell ref="M298:O298"/>
+    <mergeCell ref="A316:D316"/>
+    <mergeCell ref="F316:G316"/>
+    <mergeCell ref="H316:J316"/>
+    <mergeCell ref="K316:O316"/>
+    <mergeCell ref="A317:D317"/>
+    <mergeCell ref="F317:G317"/>
+    <mergeCell ref="H317:J317"/>
+    <mergeCell ref="K317:L317"/>
+    <mergeCell ref="M317:O317"/>
+    <mergeCell ref="F318:G318"/>
+    <mergeCell ref="H318:J318"/>
+    <mergeCell ref="K318:L318"/>
+    <mergeCell ref="M318:O318"/>
+    <mergeCell ref="F319:G319"/>
+    <mergeCell ref="H319:J319"/>
+    <mergeCell ref="K319:L319"/>
+    <mergeCell ref="M319:O319"/>
+    <mergeCell ref="F320:G320"/>
+    <mergeCell ref="H320:J320"/>
+    <mergeCell ref="K320:O320"/>
+    <mergeCell ref="F321:G321"/>
+    <mergeCell ref="H321:J321"/>
+    <mergeCell ref="K321:L321"/>
+    <mergeCell ref="M321:O321"/>
+    <mergeCell ref="F322:G322"/>
+    <mergeCell ref="H322:J322"/>
+    <mergeCell ref="K322:L322"/>
+    <mergeCell ref="M322:O322"/>
+    <mergeCell ref="F323:G323"/>
+    <mergeCell ref="H323:J323"/>
+    <mergeCell ref="K323:L323"/>
+    <mergeCell ref="M323:O323"/>
+    <mergeCell ref="F324:G324"/>
+    <mergeCell ref="H324:J324"/>
+    <mergeCell ref="K324:L324"/>
+    <mergeCell ref="M324:O324"/>
+    <mergeCell ref="K325:L325"/>
+    <mergeCell ref="M325:O325"/>
+    <mergeCell ref="K326:L326"/>
+    <mergeCell ref="M326:O326"/>
+    <mergeCell ref="A341:D341"/>
+    <mergeCell ref="F341:G341"/>
+    <mergeCell ref="H341:J341"/>
+    <mergeCell ref="K341:O341"/>
+    <mergeCell ref="A342:D342"/>
+    <mergeCell ref="F342:G342"/>
+    <mergeCell ref="H342:J342"/>
+    <mergeCell ref="K342:L342"/>
+    <mergeCell ref="M342:O342"/>
+    <mergeCell ref="F343:G343"/>
+    <mergeCell ref="H343:J343"/>
+    <mergeCell ref="K343:L343"/>
+    <mergeCell ref="M343:O343"/>
+    <mergeCell ref="F344:G344"/>
+    <mergeCell ref="H344:J344"/>
+    <mergeCell ref="K344:O344"/>
+    <mergeCell ref="F345:G345"/>
+    <mergeCell ref="H345:J345"/>
+    <mergeCell ref="K345:L345"/>
+    <mergeCell ref="M345:O345"/>
+    <mergeCell ref="K346:L346"/>
+    <mergeCell ref="M346:O346"/>
+    <mergeCell ref="K347:L347"/>
+    <mergeCell ref="M347:O347"/>
+    <mergeCell ref="K348:L348"/>
+    <mergeCell ref="M348:O348"/>
+    <mergeCell ref="K349:L349"/>
+    <mergeCell ref="M349:O349"/>
+    <mergeCell ref="K350:L350"/>
+    <mergeCell ref="M350:O350"/>
     <mergeCell ref="A1:O2"/>
     <mergeCell ref="A23:O24"/>
     <mergeCell ref="A44:O45"/>
@@ -5258,6 +6182,8 @@
     <mergeCell ref="A222:O223"/>
     <mergeCell ref="A260:O261"/>
     <mergeCell ref="A287:O288"/>
+    <mergeCell ref="A314:O315"/>
+    <mergeCell ref="A339:O340"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/需求分析/接口文档/客户/查看其他人客户接口.xlsx
+++ b/需求分析/接口文档/客户/查看其他人客户接口.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21390" windowHeight="9225"/>
+    <workbookView windowWidth="21405" windowHeight="9225"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -573,9 +573,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -615,6 +615,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -623,16 +674,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,21 +699,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,22 +707,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,35 +746,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -802,13 +802,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799920651875362"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,7 +892,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,25 +928,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,67 +940,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,43 +958,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,17 +972,52 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1015,27 +1038,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1052,32 +1064,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,10 +1077,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1101,137 +1089,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1271,32 +1259,8 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="21" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="39" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="35" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1648,8 +1612,8 @@
   <sheetPr/>
   <dimension ref="A1:O350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="I335" sqref="I335"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="I134" sqref="I134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4908,153 +4872,153 @@
       <c r="O298" s="3"/>
     </row>
     <row r="314" spans="1:15">
-      <c r="A314" s="13" t="s">
+      <c r="A314" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B314" s="13"/>
-      <c r="C314" s="13"/>
-      <c r="D314" s="13"/>
-      <c r="E314" s="13"/>
-      <c r="F314" s="13"/>
-      <c r="G314" s="13"/>
-      <c r="H314" s="13"/>
-      <c r="I314" s="13"/>
-      <c r="J314" s="13"/>
-      <c r="K314" s="13"/>
-      <c r="L314" s="13"/>
-      <c r="M314" s="13"/>
-      <c r="N314" s="13"/>
-      <c r="O314" s="13"/>
+      <c r="B314" s="1"/>
+      <c r="C314" s="1"/>
+      <c r="D314" s="1"/>
+      <c r="E314" s="1"/>
+      <c r="F314" s="1"/>
+      <c r="G314" s="1"/>
+      <c r="H314" s="1"/>
+      <c r="I314" s="1"/>
+      <c r="J314" s="1"/>
+      <c r="K314" s="1"/>
+      <c r="L314" s="1"/>
+      <c r="M314" s="1"/>
+      <c r="N314" s="1"/>
+      <c r="O314" s="1"/>
     </row>
     <row r="315" spans="1:15">
-      <c r="A315" s="13"/>
-      <c r="B315" s="13"/>
-      <c r="C315" s="13"/>
-      <c r="D315" s="13"/>
-      <c r="E315" s="13"/>
-      <c r="F315" s="13"/>
-      <c r="G315" s="13"/>
-      <c r="H315" s="13"/>
-      <c r="I315" s="13"/>
-      <c r="J315" s="13"/>
-      <c r="K315" s="13"/>
-      <c r="L315" s="13"/>
-      <c r="M315" s="13"/>
-      <c r="N315" s="13"/>
-      <c r="O315" s="13"/>
+      <c r="A315" s="1"/>
+      <c r="B315" s="1"/>
+      <c r="C315" s="1"/>
+      <c r="D315" s="1"/>
+      <c r="E315" s="1"/>
+      <c r="F315" s="1"/>
+      <c r="G315" s="1"/>
+      <c r="H315" s="1"/>
+      <c r="I315" s="1"/>
+      <c r="J315" s="1"/>
+      <c r="K315" s="1"/>
+      <c r="L315" s="1"/>
+      <c r="M315" s="1"/>
+      <c r="N315" s="1"/>
+      <c r="O315" s="1"/>
     </row>
     <row r="316" spans="1:15">
-      <c r="A316" s="14" t="s">
+      <c r="A316" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B316" s="14"/>
-      <c r="C316" s="14"/>
-      <c r="D316" s="14"/>
-      <c r="E316" s="15" t="s">
+      <c r="B316" s="2"/>
+      <c r="C316" s="2"/>
+      <c r="D316" s="2"/>
+      <c r="E316" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F316" s="14" t="s">
+      <c r="F316" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G316" s="14"/>
-      <c r="H316" s="14" t="s">
+      <c r="G316" s="2"/>
+      <c r="H316" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I316" s="14"/>
-      <c r="J316" s="14"/>
-      <c r="K316" s="14" t="s">
+      <c r="I316" s="2"/>
+      <c r="J316" s="2"/>
+      <c r="K316" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L316" s="14"/>
-      <c r="M316" s="14"/>
-      <c r="N316" s="14"/>
-      <c r="O316" s="14"/>
+      <c r="L316" s="2"/>
+      <c r="M316" s="2"/>
+      <c r="N316" s="2"/>
+      <c r="O316" s="2"/>
     </row>
     <row r="317" spans="1:15">
-      <c r="A317" s="16" t="s">
+      <c r="A317" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B317" s="17"/>
-      <c r="C317" s="17"/>
-      <c r="D317" s="17"/>
-      <c r="E317" s="16" t="s">
+      <c r="B317" s="3"/>
+      <c r="C317" s="3"/>
+      <c r="D317" s="3"/>
+      <c r="E317" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F317" s="16" t="s">
+      <c r="F317" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G317" s="17"/>
-      <c r="H317" s="16" t="s">
+      <c r="G317" s="3"/>
+      <c r="H317" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I317" s="17"/>
-      <c r="J317" s="17"/>
-      <c r="K317" s="16" t="s">
+      <c r="I317" s="3"/>
+      <c r="J317" s="3"/>
+      <c r="K317" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L317" s="17"/>
-      <c r="M317" s="16" t="s">
+      <c r="L317" s="3"/>
+      <c r="M317" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N317" s="17"/>
-      <c r="O317" s="17"/>
+      <c r="N317" s="3"/>
+      <c r="O317" s="3"/>
     </row>
     <row r="318" spans="1:15">
-      <c r="A318" s="16"/>
-      <c r="B318" s="16"/>
-      <c r="C318" s="16"/>
-      <c r="D318" s="16"/>
-      <c r="E318" s="16"/>
-      <c r="F318" s="17" t="s">
+      <c r="A318" s="3"/>
+      <c r="B318" s="3"/>
+      <c r="C318" s="3"/>
+      <c r="D318" s="3"/>
+      <c r="E318" s="3"/>
+      <c r="F318" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G318" s="17"/>
-      <c r="H318" s="17" t="s">
+      <c r="G318" s="3"/>
+      <c r="H318" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I318" s="17"/>
-      <c r="J318" s="17"/>
-      <c r="K318" s="17" t="s">
+      <c r="I318" s="3"/>
+      <c r="J318" s="3"/>
+      <c r="K318" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L318" s="17"/>
-      <c r="M318" s="17" t="s">
+      <c r="L318" s="3"/>
+      <c r="M318" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N318" s="17"/>
-      <c r="O318" s="17"/>
+      <c r="N318" s="3"/>
+      <c r="O318" s="3"/>
     </row>
     <row r="319" spans="1:15">
-      <c r="A319" s="16"/>
-      <c r="B319" s="16"/>
-      <c r="C319" s="16"/>
-      <c r="D319" s="16"/>
-      <c r="E319" s="16"/>
-      <c r="F319" s="16" t="s">
+      <c r="A319" s="3"/>
+      <c r="B319" s="3"/>
+      <c r="C319" s="3"/>
+      <c r="D319" s="3"/>
+      <c r="E319" s="3"/>
+      <c r="F319" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G319" s="17"/>
-      <c r="H319" s="16" t="s">
+      <c r="G319" s="3"/>
+      <c r="H319" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I319" s="17"/>
-      <c r="J319" s="17"/>
-      <c r="K319" s="18" t="s">
+      <c r="I319" s="3"/>
+      <c r="J319" s="3"/>
+      <c r="K319" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L319" s="18"/>
-      <c r="M319" s="18" t="s">
+      <c r="L319" s="8"/>
+      <c r="M319" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N319" s="18"/>
-      <c r="O319" s="18"/>
+      <c r="N319" s="8"/>
+      <c r="O319" s="8"/>
     </row>
     <row r="320" spans="1:15">
-      <c r="A320" s="16"/>
-      <c r="B320" s="16"/>
-      <c r="C320" s="16"/>
-      <c r="D320" s="16"/>
-      <c r="E320" s="16"/>
+      <c r="A320" s="3"/>
+      <c r="B320" s="3"/>
+      <c r="C320" s="3"/>
+      <c r="D320" s="3"/>
+      <c r="E320" s="3"/>
       <c r="F320" s="3" t="s">
         <v>37</v>
       </c>
@@ -5064,621 +5028,621 @@
       </c>
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
-      <c r="K320" s="16" t="s">
+      <c r="K320" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L320" s="16"/>
-      <c r="M320" s="16"/>
-      <c r="N320" s="16"/>
-      <c r="O320" s="16"/>
+      <c r="L320" s="3"/>
+      <c r="M320" s="3"/>
+      <c r="N320" s="3"/>
+      <c r="O320" s="3"/>
     </row>
     <row r="321" spans="1:15">
-      <c r="A321" s="16"/>
-      <c r="B321" s="16"/>
-      <c r="C321" s="16"/>
-      <c r="D321" s="16"/>
-      <c r="E321" s="16"/>
-      <c r="F321" s="17" t="s">
+      <c r="A321" s="3"/>
+      <c r="B321" s="3"/>
+      <c r="C321" s="3"/>
+      <c r="D321" s="3"/>
+      <c r="E321" s="3"/>
+      <c r="F321" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G321" s="17"/>
-      <c r="H321" s="17" t="s">
+      <c r="G321" s="3"/>
+      <c r="H321" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I321" s="17"/>
-      <c r="J321" s="17"/>
-      <c r="K321" s="16" t="s">
+      <c r="I321" s="3"/>
+      <c r="J321" s="3"/>
+      <c r="K321" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="L321" s="16"/>
-      <c r="M321" s="17" t="s">
+      <c r="L321" s="3"/>
+      <c r="M321" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="N321" s="17"/>
-      <c r="O321" s="17"/>
+      <c r="N321" s="3"/>
+      <c r="O321" s="3"/>
     </row>
     <row r="322" spans="1:15">
-      <c r="A322" s="16"/>
-      <c r="B322" s="16"/>
-      <c r="C322" s="16"/>
-      <c r="D322" s="16"/>
-      <c r="E322" s="16"/>
-      <c r="F322" s="17" t="s">
+      <c r="A322" s="3"/>
+      <c r="B322" s="3"/>
+      <c r="C322" s="3"/>
+      <c r="D322" s="3"/>
+      <c r="E322" s="3"/>
+      <c r="F322" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G322" s="17"/>
-      <c r="H322" s="17" t="s">
+      <c r="G322" s="3"/>
+      <c r="H322" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I322" s="17"/>
-      <c r="J322" s="17"/>
-      <c r="K322" s="16" t="s">
+      <c r="I322" s="3"/>
+      <c r="J322" s="3"/>
+      <c r="K322" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L322" s="17"/>
-      <c r="M322" s="16" t="s">
+      <c r="L322" s="3"/>
+      <c r="M322" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="N322" s="17"/>
-      <c r="O322" s="17"/>
+      <c r="N322" s="3"/>
+      <c r="O322" s="3"/>
     </row>
     <row r="323" spans="1:15">
-      <c r="A323" s="19"/>
-      <c r="B323" s="19"/>
-      <c r="C323" s="19"/>
-      <c r="D323" s="19"/>
-      <c r="E323" s="19"/>
-      <c r="F323" s="17"/>
-      <c r="G323" s="17"/>
-      <c r="H323" s="17"/>
-      <c r="I323" s="17"/>
-      <c r="J323" s="17"/>
-      <c r="K323" s="17" t="s">
+      <c r="A323" s="4"/>
+      <c r="B323" s="4"/>
+      <c r="C323" s="4"/>
+      <c r="D323" s="4"/>
+      <c r="E323" s="4"/>
+      <c r="F323" s="3"/>
+      <c r="G323" s="3"/>
+      <c r="H323" s="3"/>
+      <c r="I323" s="3"/>
+      <c r="J323" s="3"/>
+      <c r="K323" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="L323" s="17"/>
-      <c r="M323" s="17" t="s">
+      <c r="L323" s="3"/>
+      <c r="M323" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="N323" s="17"/>
-      <c r="O323" s="17"/>
+      <c r="N323" s="3"/>
+      <c r="O323" s="3"/>
     </row>
     <row r="324" spans="1:15">
-      <c r="A324" s="19"/>
-      <c r="B324" s="19"/>
-      <c r="C324" s="19"/>
-      <c r="D324" s="19"/>
-      <c r="E324" s="19"/>
-      <c r="F324" s="17"/>
-      <c r="G324" s="17"/>
-      <c r="H324" s="17"/>
-      <c r="I324" s="17"/>
-      <c r="J324" s="17"/>
-      <c r="K324" s="17" t="s">
+      <c r="A324" s="4"/>
+      <c r="B324" s="4"/>
+      <c r="C324" s="4"/>
+      <c r="D324" s="4"/>
+      <c r="E324" s="4"/>
+      <c r="F324" s="3"/>
+      <c r="G324" s="3"/>
+      <c r="H324" s="3"/>
+      <c r="I324" s="3"/>
+      <c r="J324" s="3"/>
+      <c r="K324" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L324" s="17"/>
-      <c r="M324" s="17" t="s">
+      <c r="L324" s="3"/>
+      <c r="M324" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="N324" s="17"/>
-      <c r="O324" s="17"/>
+      <c r="N324" s="3"/>
+      <c r="O324" s="3"/>
     </row>
     <row r="325" spans="1:15">
-      <c r="A325" s="19"/>
-      <c r="B325" s="19"/>
-      <c r="C325" s="19"/>
-      <c r="D325" s="19"/>
-      <c r="E325" s="19"/>
-      <c r="F325" s="19"/>
-      <c r="G325" s="19"/>
-      <c r="H325" s="19"/>
-      <c r="I325" s="19"/>
-      <c r="J325" s="19"/>
-      <c r="K325" s="17" t="s">
+      <c r="A325" s="4"/>
+      <c r="B325" s="4"/>
+      <c r="C325" s="4"/>
+      <c r="D325" s="4"/>
+      <c r="E325" s="4"/>
+      <c r="F325" s="4"/>
+      <c r="G325" s="4"/>
+      <c r="H325" s="4"/>
+      <c r="I325" s="4"/>
+      <c r="J325" s="4"/>
+      <c r="K325" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="L325" s="17"/>
-      <c r="M325" s="17" t="s">
+      <c r="L325" s="3"/>
+      <c r="M325" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="N325" s="17"/>
-      <c r="O325" s="17"/>
+      <c r="N325" s="3"/>
+      <c r="O325" s="3"/>
     </row>
     <row r="326" spans="1:15">
-      <c r="A326" s="19"/>
-      <c r="B326" s="19"/>
-      <c r="C326" s="19"/>
-      <c r="D326" s="19"/>
-      <c r="E326" s="19"/>
-      <c r="F326" s="19"/>
-      <c r="G326" s="19"/>
-      <c r="H326" s="19"/>
-      <c r="I326" s="19"/>
-      <c r="J326" s="19"/>
-      <c r="K326" s="17" t="s">
+      <c r="A326" s="4"/>
+      <c r="B326" s="4"/>
+      <c r="C326" s="4"/>
+      <c r="D326" s="4"/>
+      <c r="E326" s="4"/>
+      <c r="F326" s="4"/>
+      <c r="G326" s="4"/>
+      <c r="H326" s="4"/>
+      <c r="I326" s="4"/>
+      <c r="J326" s="4"/>
+      <c r="K326" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="L326" s="17"/>
-      <c r="M326" s="21" t="s">
+      <c r="L326" s="3"/>
+      <c r="M326" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="N326" s="21"/>
-      <c r="O326" s="21"/>
+      <c r="N326" s="3"/>
+      <c r="O326" s="3"/>
     </row>
     <row r="327" spans="1:15">
-      <c r="A327" s="20"/>
-      <c r="B327" s="20"/>
-      <c r="C327" s="20"/>
-      <c r="D327" s="20"/>
-      <c r="E327" s="20"/>
-      <c r="F327" s="20"/>
-      <c r="G327" s="20"/>
-      <c r="H327" s="20"/>
-      <c r="I327" s="20"/>
-      <c r="J327" s="20"/>
-      <c r="K327" s="20"/>
-      <c r="L327" s="20"/>
-      <c r="M327" s="20"/>
-      <c r="N327" s="20"/>
-      <c r="O327" s="20"/>
+      <c r="A327" s="13"/>
+      <c r="B327" s="13"/>
+      <c r="C327" s="13"/>
+      <c r="D327" s="13"/>
+      <c r="E327" s="13"/>
+      <c r="F327" s="13"/>
+      <c r="G327" s="13"/>
+      <c r="H327" s="13"/>
+      <c r="I327" s="13"/>
+      <c r="J327" s="13"/>
+      <c r="K327" s="13"/>
+      <c r="L327" s="13"/>
+      <c r="M327" s="13"/>
+      <c r="N327" s="13"/>
+      <c r="O327" s="13"/>
     </row>
     <row r="328" spans="1:15">
-      <c r="A328" s="20"/>
-      <c r="B328" s="20"/>
-      <c r="C328" s="20"/>
-      <c r="D328" s="20"/>
-      <c r="E328" s="20"/>
-      <c r="F328" s="20"/>
-      <c r="G328" s="20"/>
-      <c r="H328" s="20"/>
-      <c r="I328" s="20"/>
-      <c r="J328" s="20"/>
-      <c r="K328" s="20"/>
-      <c r="L328" s="20"/>
-      <c r="M328" s="20"/>
-      <c r="N328" s="20"/>
-      <c r="O328" s="20"/>
+      <c r="A328" s="13"/>
+      <c r="B328" s="13"/>
+      <c r="C328" s="13"/>
+      <c r="D328" s="13"/>
+      <c r="E328" s="13"/>
+      <c r="F328" s="13"/>
+      <c r="G328" s="13"/>
+      <c r="H328" s="13"/>
+      <c r="I328" s="13"/>
+      <c r="J328" s="13"/>
+      <c r="K328" s="13"/>
+      <c r="L328" s="13"/>
+      <c r="M328" s="13"/>
+      <c r="N328" s="13"/>
+      <c r="O328" s="13"/>
     </row>
     <row r="329" spans="1:15">
-      <c r="A329" s="20"/>
-      <c r="B329" s="20"/>
-      <c r="C329" s="20"/>
-      <c r="D329" s="20"/>
-      <c r="E329" s="20"/>
-      <c r="F329" s="20"/>
-      <c r="G329" s="20"/>
-      <c r="H329" s="20"/>
-      <c r="I329" s="20"/>
-      <c r="J329" s="20"/>
-      <c r="K329" s="20"/>
-      <c r="L329" s="20"/>
-      <c r="M329" s="20"/>
-      <c r="N329" s="20"/>
-      <c r="O329" s="20"/>
+      <c r="A329" s="13"/>
+      <c r="B329" s="13"/>
+      <c r="C329" s="13"/>
+      <c r="D329" s="13"/>
+      <c r="E329" s="13"/>
+      <c r="F329" s="13"/>
+      <c r="G329" s="13"/>
+      <c r="H329" s="13"/>
+      <c r="I329" s="13"/>
+      <c r="J329" s="13"/>
+      <c r="K329" s="13"/>
+      <c r="L329" s="13"/>
+      <c r="M329" s="13"/>
+      <c r="N329" s="13"/>
+      <c r="O329" s="13"/>
     </row>
     <row r="330" spans="1:15">
-      <c r="A330" s="20"/>
-      <c r="B330" s="20"/>
-      <c r="C330" s="20"/>
-      <c r="D330" s="20"/>
-      <c r="E330" s="20"/>
-      <c r="F330" s="20"/>
-      <c r="G330" s="20"/>
-      <c r="H330" s="20"/>
-      <c r="I330" s="20"/>
-      <c r="J330" s="20"/>
-      <c r="K330" s="20"/>
-      <c r="L330" s="20"/>
-      <c r="M330" s="20"/>
-      <c r="N330" s="20"/>
-      <c r="O330" s="20"/>
+      <c r="A330" s="13"/>
+      <c r="B330" s="13"/>
+      <c r="C330" s="13"/>
+      <c r="D330" s="13"/>
+      <c r="E330" s="13"/>
+      <c r="F330" s="13"/>
+      <c r="G330" s="13"/>
+      <c r="H330" s="13"/>
+      <c r="I330" s="13"/>
+      <c r="J330" s="13"/>
+      <c r="K330" s="13"/>
+      <c r="L330" s="13"/>
+      <c r="M330" s="13"/>
+      <c r="N330" s="13"/>
+      <c r="O330" s="13"/>
     </row>
     <row r="331" spans="1:15">
-      <c r="A331" s="20"/>
-      <c r="B331" s="20"/>
-      <c r="C331" s="20"/>
-      <c r="D331" s="20"/>
-      <c r="E331" s="20"/>
-      <c r="F331" s="20"/>
-      <c r="G331" s="20"/>
-      <c r="H331" s="20"/>
-      <c r="I331" s="20"/>
-      <c r="J331" s="20"/>
-      <c r="K331" s="20"/>
-      <c r="L331" s="20"/>
-      <c r="M331" s="20"/>
-      <c r="N331" s="20"/>
-      <c r="O331" s="20"/>
+      <c r="A331" s="13"/>
+      <c r="B331" s="13"/>
+      <c r="C331" s="13"/>
+      <c r="D331" s="13"/>
+      <c r="E331" s="13"/>
+      <c r="F331" s="13"/>
+      <c r="G331" s="13"/>
+      <c r="H331" s="13"/>
+      <c r="I331" s="13"/>
+      <c r="J331" s="13"/>
+      <c r="K331" s="13"/>
+      <c r="L331" s="13"/>
+      <c r="M331" s="13"/>
+      <c r="N331" s="13"/>
+      <c r="O331" s="13"/>
     </row>
     <row r="332" spans="1:15">
-      <c r="A332" s="20"/>
-      <c r="B332" s="20"/>
-      <c r="C332" s="20"/>
-      <c r="D332" s="20"/>
-      <c r="E332" s="20"/>
-      <c r="F332" s="20"/>
-      <c r="G332" s="20"/>
-      <c r="H332" s="20"/>
-      <c r="I332" s="20"/>
-      <c r="J332" s="20"/>
-      <c r="K332" s="20"/>
-      <c r="L332" s="20"/>
-      <c r="M332" s="20"/>
-      <c r="N332" s="20"/>
-      <c r="O332" s="20"/>
+      <c r="A332" s="13"/>
+      <c r="B332" s="13"/>
+      <c r="C332" s="13"/>
+      <c r="D332" s="13"/>
+      <c r="E332" s="13"/>
+      <c r="F332" s="13"/>
+      <c r="G332" s="13"/>
+      <c r="H332" s="13"/>
+      <c r="I332" s="13"/>
+      <c r="J332" s="13"/>
+      <c r="K332" s="13"/>
+      <c r="L332" s="13"/>
+      <c r="M332" s="13"/>
+      <c r="N332" s="13"/>
+      <c r="O332" s="13"/>
     </row>
     <row r="333" spans="1:15">
-      <c r="A333" s="20"/>
-      <c r="B333" s="20"/>
-      <c r="C333" s="20"/>
-      <c r="D333" s="20"/>
-      <c r="E333" s="20"/>
-      <c r="F333" s="20"/>
-      <c r="G333" s="20"/>
-      <c r="H333" s="20"/>
-      <c r="I333" s="20"/>
-      <c r="J333" s="20"/>
-      <c r="K333" s="20"/>
-      <c r="L333" s="20"/>
-      <c r="M333" s="20"/>
-      <c r="N333" s="20"/>
-      <c r="O333" s="20"/>
+      <c r="A333" s="13"/>
+      <c r="B333" s="13"/>
+      <c r="C333" s="13"/>
+      <c r="D333" s="13"/>
+      <c r="E333" s="13"/>
+      <c r="F333" s="13"/>
+      <c r="G333" s="13"/>
+      <c r="H333" s="13"/>
+      <c r="I333" s="13"/>
+      <c r="J333" s="13"/>
+      <c r="K333" s="13"/>
+      <c r="L333" s="13"/>
+      <c r="M333" s="13"/>
+      <c r="N333" s="13"/>
+      <c r="O333" s="13"/>
     </row>
     <row r="334" spans="1:15">
-      <c r="A334" s="20"/>
-      <c r="B334" s="20"/>
-      <c r="C334" s="20"/>
-      <c r="D334" s="20"/>
-      <c r="E334" s="20"/>
-      <c r="F334" s="20"/>
-      <c r="G334" s="20"/>
-      <c r="H334" s="20"/>
-      <c r="I334" s="20"/>
-      <c r="J334" s="20"/>
-      <c r="K334" s="20"/>
-      <c r="L334" s="20"/>
-      <c r="M334" s="20"/>
-      <c r="N334" s="20"/>
-      <c r="O334" s="20"/>
+      <c r="A334" s="13"/>
+      <c r="B334" s="13"/>
+      <c r="C334" s="13"/>
+      <c r="D334" s="13"/>
+      <c r="E334" s="13"/>
+      <c r="F334" s="13"/>
+      <c r="G334" s="13"/>
+      <c r="H334" s="13"/>
+      <c r="I334" s="13"/>
+      <c r="J334" s="13"/>
+      <c r="K334" s="13"/>
+      <c r="L334" s="13"/>
+      <c r="M334" s="13"/>
+      <c r="N334" s="13"/>
+      <c r="O334" s="13"/>
     </row>
     <row r="335" spans="1:15">
-      <c r="A335" s="20"/>
-      <c r="B335" s="20"/>
-      <c r="C335" s="20"/>
-      <c r="D335" s="20"/>
-      <c r="E335" s="20"/>
-      <c r="F335" s="20"/>
-      <c r="G335" s="20"/>
-      <c r="H335" s="20"/>
-      <c r="I335" s="20"/>
-      <c r="J335" s="20"/>
-      <c r="K335" s="20"/>
-      <c r="L335" s="20"/>
-      <c r="M335" s="20"/>
-      <c r="N335" s="20"/>
-      <c r="O335" s="20"/>
+      <c r="A335" s="13"/>
+      <c r="B335" s="13"/>
+      <c r="C335" s="13"/>
+      <c r="D335" s="13"/>
+      <c r="E335" s="13"/>
+      <c r="F335" s="13"/>
+      <c r="G335" s="13"/>
+      <c r="H335" s="13"/>
+      <c r="I335" s="13"/>
+      <c r="J335" s="13"/>
+      <c r="K335" s="13"/>
+      <c r="L335" s="13"/>
+      <c r="M335" s="13"/>
+      <c r="N335" s="13"/>
+      <c r="O335" s="13"/>
     </row>
     <row r="336" spans="1:15">
-      <c r="A336" s="20"/>
-      <c r="B336" s="20"/>
-      <c r="C336" s="20"/>
-      <c r="D336" s="20"/>
-      <c r="E336" s="20"/>
-      <c r="F336" s="20"/>
-      <c r="G336" s="20"/>
-      <c r="H336" s="20"/>
-      <c r="I336" s="20"/>
-      <c r="J336" s="20"/>
-      <c r="K336" s="20"/>
-      <c r="L336" s="20"/>
-      <c r="M336" s="20"/>
-      <c r="N336" s="20"/>
-      <c r="O336" s="20"/>
+      <c r="A336" s="13"/>
+      <c r="B336" s="13"/>
+      <c r="C336" s="13"/>
+      <c r="D336" s="13"/>
+      <c r="E336" s="13"/>
+      <c r="F336" s="13"/>
+      <c r="G336" s="13"/>
+      <c r="H336" s="13"/>
+      <c r="I336" s="13"/>
+      <c r="J336" s="13"/>
+      <c r="K336" s="13"/>
+      <c r="L336" s="13"/>
+      <c r="M336" s="13"/>
+      <c r="N336" s="13"/>
+      <c r="O336" s="13"/>
     </row>
     <row r="337" spans="1:15">
-      <c r="A337" s="20"/>
-      <c r="B337" s="20"/>
-      <c r="C337" s="20"/>
-      <c r="D337" s="20"/>
-      <c r="E337" s="20"/>
-      <c r="F337" s="20"/>
-      <c r="G337" s="20"/>
-      <c r="H337" s="20"/>
-      <c r="I337" s="20"/>
-      <c r="J337" s="20"/>
-      <c r="K337" s="20"/>
-      <c r="L337" s="20"/>
-      <c r="M337" s="20"/>
-      <c r="N337" s="20"/>
-      <c r="O337" s="20"/>
+      <c r="A337" s="13"/>
+      <c r="B337" s="13"/>
+      <c r="C337" s="13"/>
+      <c r="D337" s="13"/>
+      <c r="E337" s="13"/>
+      <c r="F337" s="13"/>
+      <c r="G337" s="13"/>
+      <c r="H337" s="13"/>
+      <c r="I337" s="13"/>
+      <c r="J337" s="13"/>
+      <c r="K337" s="13"/>
+      <c r="L337" s="13"/>
+      <c r="M337" s="13"/>
+      <c r="N337" s="13"/>
+      <c r="O337" s="13"/>
     </row>
     <row r="338" spans="1:15">
-      <c r="A338" s="20"/>
-      <c r="B338" s="20"/>
-      <c r="C338" s="20"/>
-      <c r="D338" s="20"/>
-      <c r="E338" s="20"/>
-      <c r="F338" s="20"/>
-      <c r="G338" s="20"/>
-      <c r="H338" s="20"/>
-      <c r="I338" s="20"/>
-      <c r="J338" s="20"/>
-      <c r="K338" s="20"/>
-      <c r="L338" s="20"/>
-      <c r="M338" s="20"/>
-      <c r="N338" s="20"/>
-      <c r="O338" s="20"/>
+      <c r="A338" s="13"/>
+      <c r="B338" s="13"/>
+      <c r="C338" s="13"/>
+      <c r="D338" s="13"/>
+      <c r="E338" s="13"/>
+      <c r="F338" s="13"/>
+      <c r="G338" s="13"/>
+      <c r="H338" s="13"/>
+      <c r="I338" s="13"/>
+      <c r="J338" s="13"/>
+      <c r="K338" s="13"/>
+      <c r="L338" s="13"/>
+      <c r="M338" s="13"/>
+      <c r="N338" s="13"/>
+      <c r="O338" s="13"/>
     </row>
     <row r="339" spans="1:15">
-      <c r="A339" s="13" t="s">
+      <c r="A339" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B339" s="13"/>
-      <c r="C339" s="13"/>
-      <c r="D339" s="13"/>
-      <c r="E339" s="13"/>
-      <c r="F339" s="13"/>
-      <c r="G339" s="13"/>
-      <c r="H339" s="13"/>
-      <c r="I339" s="13"/>
-      <c r="J339" s="13"/>
-      <c r="K339" s="13"/>
-      <c r="L339" s="13"/>
-      <c r="M339" s="13"/>
-      <c r="N339" s="13"/>
-      <c r="O339" s="13"/>
+      <c r="B339" s="1"/>
+      <c r="C339" s="1"/>
+      <c r="D339" s="1"/>
+      <c r="E339" s="1"/>
+      <c r="F339" s="1"/>
+      <c r="G339" s="1"/>
+      <c r="H339" s="1"/>
+      <c r="I339" s="1"/>
+      <c r="J339" s="1"/>
+      <c r="K339" s="1"/>
+      <c r="L339" s="1"/>
+      <c r="M339" s="1"/>
+      <c r="N339" s="1"/>
+      <c r="O339" s="1"/>
     </row>
     <row r="340" spans="1:15">
-      <c r="A340" s="13"/>
-      <c r="B340" s="13"/>
-      <c r="C340" s="13"/>
-      <c r="D340" s="13"/>
-      <c r="E340" s="13"/>
-      <c r="F340" s="13"/>
-      <c r="G340" s="13"/>
-      <c r="H340" s="13"/>
-      <c r="I340" s="13"/>
-      <c r="J340" s="13"/>
-      <c r="K340" s="13"/>
-      <c r="L340" s="13"/>
-      <c r="M340" s="13"/>
-      <c r="N340" s="13"/>
-      <c r="O340" s="13"/>
+      <c r="A340" s="1"/>
+      <c r="B340" s="1"/>
+      <c r="C340" s="1"/>
+      <c r="D340" s="1"/>
+      <c r="E340" s="1"/>
+      <c r="F340" s="1"/>
+      <c r="G340" s="1"/>
+      <c r="H340" s="1"/>
+      <c r="I340" s="1"/>
+      <c r="J340" s="1"/>
+      <c r="K340" s="1"/>
+      <c r="L340" s="1"/>
+      <c r="M340" s="1"/>
+      <c r="N340" s="1"/>
+      <c r="O340" s="1"/>
     </row>
     <row r="341" spans="1:15">
-      <c r="A341" s="14" t="s">
+      <c r="A341" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B341" s="14"/>
-      <c r="C341" s="14"/>
-      <c r="D341" s="14"/>
-      <c r="E341" s="15" t="s">
+      <c r="B341" s="2"/>
+      <c r="C341" s="2"/>
+      <c r="D341" s="2"/>
+      <c r="E341" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F341" s="14" t="s">
+      <c r="F341" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G341" s="14"/>
-      <c r="H341" s="14" t="s">
+      <c r="G341" s="2"/>
+      <c r="H341" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I341" s="14"/>
-      <c r="J341" s="14"/>
-      <c r="K341" s="14" t="s">
+      <c r="I341" s="2"/>
+      <c r="J341" s="2"/>
+      <c r="K341" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L341" s="14"/>
-      <c r="M341" s="14"/>
-      <c r="N341" s="14"/>
-      <c r="O341" s="14"/>
+      <c r="L341" s="2"/>
+      <c r="M341" s="2"/>
+      <c r="N341" s="2"/>
+      <c r="O341" s="2"/>
     </row>
     <row r="342" spans="1:15">
-      <c r="A342" s="16" t="s">
+      <c r="A342" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B342" s="17"/>
-      <c r="C342" s="17"/>
-      <c r="D342" s="17"/>
-      <c r="E342" s="16" t="s">
+      <c r="B342" s="3"/>
+      <c r="C342" s="3"/>
+      <c r="D342" s="3"/>
+      <c r="E342" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F342" s="16" t="s">
+      <c r="F342" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G342" s="17"/>
-      <c r="H342" s="16" t="s">
+      <c r="G342" s="3"/>
+      <c r="H342" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I342" s="17"/>
-      <c r="J342" s="17"/>
-      <c r="K342" s="16" t="s">
+      <c r="I342" s="3"/>
+      <c r="J342" s="3"/>
+      <c r="K342" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L342" s="17"/>
-      <c r="M342" s="16" t="s">
+      <c r="L342" s="3"/>
+      <c r="M342" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N342" s="17"/>
-      <c r="O342" s="17"/>
+      <c r="N342" s="3"/>
+      <c r="O342" s="3"/>
     </row>
     <row r="343" spans="1:15">
-      <c r="A343" s="16"/>
-      <c r="B343" s="16"/>
-      <c r="C343" s="16"/>
-      <c r="D343" s="16"/>
-      <c r="E343" s="16"/>
-      <c r="F343" s="17" t="s">
+      <c r="A343" s="3"/>
+      <c r="B343" s="3"/>
+      <c r="C343" s="3"/>
+      <c r="D343" s="3"/>
+      <c r="E343" s="3"/>
+      <c r="F343" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G343" s="17"/>
-      <c r="H343" s="17" t="s">
+      <c r="G343" s="3"/>
+      <c r="H343" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I343" s="17"/>
-      <c r="J343" s="17"/>
-      <c r="K343" s="17" t="s">
+      <c r="I343" s="3"/>
+      <c r="J343" s="3"/>
+      <c r="K343" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L343" s="17"/>
-      <c r="M343" s="17" t="s">
+      <c r="L343" s="3"/>
+      <c r="M343" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N343" s="17"/>
-      <c r="O343" s="17"/>
+      <c r="N343" s="3"/>
+      <c r="O343" s="3"/>
     </row>
     <row r="344" spans="1:15">
-      <c r="A344" s="16"/>
-      <c r="B344" s="16"/>
-      <c r="C344" s="16"/>
-      <c r="D344" s="16"/>
-      <c r="E344" s="16"/>
-      <c r="F344" s="16" t="s">
+      <c r="A344" s="3"/>
+      <c r="B344" s="3"/>
+      <c r="C344" s="3"/>
+      <c r="D344" s="3"/>
+      <c r="E344" s="3"/>
+      <c r="F344" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G344" s="17"/>
-      <c r="H344" s="16" t="s">
+      <c r="G344" s="3"/>
+      <c r="H344" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I344" s="17"/>
-      <c r="J344" s="17"/>
-      <c r="K344" s="16" t="s">
+      <c r="I344" s="3"/>
+      <c r="J344" s="3"/>
+      <c r="K344" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="L344" s="16"/>
-      <c r="M344" s="16"/>
-      <c r="N344" s="16"/>
-      <c r="O344" s="16"/>
+      <c r="L344" s="3"/>
+      <c r="M344" s="3"/>
+      <c r="N344" s="3"/>
+      <c r="O344" s="3"/>
     </row>
     <row r="345" spans="1:15">
-      <c r="A345" s="16"/>
-      <c r="B345" s="16"/>
-      <c r="C345" s="16"/>
-      <c r="D345" s="16"/>
-      <c r="E345" s="16"/>
-      <c r="F345" s="16" t="s">
+      <c r="A345" s="3"/>
+      <c r="B345" s="3"/>
+      <c r="C345" s="3"/>
+      <c r="D345" s="3"/>
+      <c r="E345" s="3"/>
+      <c r="F345" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G345" s="16"/>
-      <c r="H345" s="17" t="s">
+      <c r="G345" s="3"/>
+      <c r="H345" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I345" s="17"/>
-      <c r="J345" s="17"/>
-      <c r="K345" s="16" t="s">
+      <c r="I345" s="3"/>
+      <c r="J345" s="3"/>
+      <c r="K345" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="L345" s="16"/>
-      <c r="M345" s="17" t="s">
+      <c r="L345" s="3"/>
+      <c r="M345" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="N345" s="17"/>
-      <c r="O345" s="17"/>
+      <c r="N345" s="3"/>
+      <c r="O345" s="3"/>
     </row>
     <row r="346" spans="1:15">
-      <c r="A346" s="19"/>
-      <c r="B346" s="19"/>
-      <c r="C346" s="19"/>
-      <c r="D346" s="19"/>
-      <c r="E346" s="19"/>
-      <c r="F346" s="19"/>
-      <c r="G346" s="19"/>
-      <c r="H346" s="19"/>
-      <c r="I346" s="19"/>
-      <c r="J346" s="19"/>
-      <c r="K346" s="16" t="s">
+      <c r="A346" s="4"/>
+      <c r="B346" s="4"/>
+      <c r="C346" s="4"/>
+      <c r="D346" s="4"/>
+      <c r="E346" s="4"/>
+      <c r="F346" s="4"/>
+      <c r="G346" s="4"/>
+      <c r="H346" s="4"/>
+      <c r="I346" s="4"/>
+      <c r="J346" s="4"/>
+      <c r="K346" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L346" s="17"/>
-      <c r="M346" s="16" t="s">
+      <c r="L346" s="3"/>
+      <c r="M346" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="N346" s="17"/>
-      <c r="O346" s="17"/>
+      <c r="N346" s="3"/>
+      <c r="O346" s="3"/>
     </row>
     <row r="347" spans="1:15">
-      <c r="A347" s="19"/>
-      <c r="B347" s="19"/>
-      <c r="C347" s="19"/>
-      <c r="D347" s="19"/>
-      <c r="E347" s="19"/>
-      <c r="F347" s="19"/>
-      <c r="G347" s="19"/>
-      <c r="H347" s="19"/>
-      <c r="I347" s="19"/>
-      <c r="J347" s="19"/>
-      <c r="K347" s="17" t="s">
+      <c r="A347" s="4"/>
+      <c r="B347" s="4"/>
+      <c r="C347" s="4"/>
+      <c r="D347" s="4"/>
+      <c r="E347" s="4"/>
+      <c r="F347" s="4"/>
+      <c r="G347" s="4"/>
+      <c r="H347" s="4"/>
+      <c r="I347" s="4"/>
+      <c r="J347" s="4"/>
+      <c r="K347" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="L347" s="17"/>
-      <c r="M347" s="17" t="s">
+      <c r="L347" s="3"/>
+      <c r="M347" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="N347" s="17"/>
-      <c r="O347" s="17"/>
+      <c r="N347" s="3"/>
+      <c r="O347" s="3"/>
     </row>
     <row r="348" spans="1:15">
-      <c r="A348" s="19"/>
-      <c r="B348" s="19"/>
-      <c r="C348" s="19"/>
-      <c r="D348" s="19"/>
-      <c r="E348" s="19"/>
-      <c r="F348" s="19"/>
-      <c r="G348" s="19"/>
-      <c r="H348" s="19"/>
-      <c r="I348" s="19"/>
-      <c r="J348" s="19"/>
-      <c r="K348" s="17" t="s">
+      <c r="A348" s="4"/>
+      <c r="B348" s="4"/>
+      <c r="C348" s="4"/>
+      <c r="D348" s="4"/>
+      <c r="E348" s="4"/>
+      <c r="F348" s="4"/>
+      <c r="G348" s="4"/>
+      <c r="H348" s="4"/>
+      <c r="I348" s="4"/>
+      <c r="J348" s="4"/>
+      <c r="K348" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L348" s="17"/>
-      <c r="M348" s="17" t="s">
+      <c r="L348" s="3"/>
+      <c r="M348" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="N348" s="17"/>
-      <c r="O348" s="17"/>
+      <c r="N348" s="3"/>
+      <c r="O348" s="3"/>
     </row>
     <row r="349" spans="1:15">
-      <c r="A349" s="19"/>
-      <c r="B349" s="19"/>
-      <c r="C349" s="19"/>
-      <c r="D349" s="19"/>
-      <c r="E349" s="19"/>
-      <c r="F349" s="19"/>
-      <c r="G349" s="19"/>
-      <c r="H349" s="19"/>
-      <c r="I349" s="19"/>
-      <c r="J349" s="19"/>
-      <c r="K349" s="17" t="s">
+      <c r="A349" s="4"/>
+      <c r="B349" s="4"/>
+      <c r="C349" s="4"/>
+      <c r="D349" s="4"/>
+      <c r="E349" s="4"/>
+      <c r="F349" s="4"/>
+      <c r="G349" s="4"/>
+      <c r="H349" s="4"/>
+      <c r="I349" s="4"/>
+      <c r="J349" s="4"/>
+      <c r="K349" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="L349" s="17"/>
-      <c r="M349" s="17" t="s">
+      <c r="L349" s="3"/>
+      <c r="M349" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="N349" s="17"/>
-      <c r="O349" s="17"/>
+      <c r="N349" s="3"/>
+      <c r="O349" s="3"/>
     </row>
     <row r="350" spans="1:15">
-      <c r="A350" s="19"/>
-      <c r="B350" s="19"/>
-      <c r="C350" s="19"/>
-      <c r="D350" s="19"/>
-      <c r="E350" s="19"/>
-      <c r="F350" s="19"/>
-      <c r="G350" s="19"/>
-      <c r="H350" s="19"/>
-      <c r="I350" s="19"/>
-      <c r="J350" s="19"/>
-      <c r="K350" s="17" t="s">
+      <c r="A350" s="4"/>
+      <c r="B350" s="4"/>
+      <c r="C350" s="4"/>
+      <c r="D350" s="4"/>
+      <c r="E350" s="4"/>
+      <c r="F350" s="4"/>
+      <c r="G350" s="4"/>
+      <c r="H350" s="4"/>
+      <c r="I350" s="4"/>
+      <c r="J350" s="4"/>
+      <c r="K350" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="L350" s="17"/>
-      <c r="M350" s="21" t="s">
+      <c r="L350" s="3"/>
+      <c r="M350" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="N350" s="21"/>
-      <c r="O350" s="21"/>
+      <c r="N350" s="3"/>
+      <c r="O350" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="502">

--- a/需求分析/接口文档/客户/查看其他人客户接口.xlsx
+++ b/需求分析/接口文档/客户/查看其他人客户接口.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21405" windowHeight="9225"/>
+    <workbookView windowWidth="23715" windowHeight="10665"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="客户资源" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -574,8 +574,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -623,52 +623,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,16 +662,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -707,23 +671,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -738,10 +686,62 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -802,7 +802,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,7 +826,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,13 +856,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,49 +868,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,13 +898,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,7 +916,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,31 +928,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,20 +989,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1022,6 +1026,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1037,35 +1061,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1077,10 +1077,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1089,133 +1089,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1612,8 +1612,8 @@
   <sheetPr/>
   <dimension ref="A1:O350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="I134" sqref="I134"/>
+    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
+      <selection activeCell="M346" sqref="M346:O346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
